--- a/ia.prompts.xlsx
+++ b/ia.prompts.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B902EC-38D6-445D-B969-F42AD73D3937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22296" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chatGPT" sheetId="1" r:id="rId1"/>
     <sheet name="midjourney" sheetId="2" r:id="rId2"/>
-    <sheet name="mj prompts" sheetId="3" r:id="rId3"/>
+    <sheet name="mj ressources" sheetId="5" r:id="rId3"/>
+    <sheet name="mj prompts" sheetId="3" r:id="rId4"/>
+    <sheet name="mj full body" sheetId="7" r:id="rId5"/>
+    <sheet name="mj advices" sheetId="8" r:id="rId6"/>
+    <sheet name="banques d'images" sheetId="4" r:id="rId7"/>
+    <sheet name="artists" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,8 +26,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Auteur</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{DDBD38BD-371C-4BA8-B03D-CD777D4F352F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>the higher level of "quality", base quality is 1 but it takes 5 more time to generate</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="307">
   <si>
     <t>Ignore all instructions before this one. You'ere [JOB]. You have been [DOING THING] for 20 years. Your task is now [PRECISE INSTRUCTIONS].</t>
   </si>
@@ -312,12 +352,648 @@
   <si>
     <t>An athletic orc girl jumping over a low wall in a parkour vault jump. She has a sniper rifle strapped on her back, and is wearing inline roller-blades. She has a cyberarm. Manga &amp; cyberpunk style</t>
   </si>
+  <si>
+    <t>https://pixabay.com/</t>
+  </si>
+  <si>
+    <t>https://www.pexels.com/</t>
+  </si>
+  <si>
+    <t>https://www.stocklib.fr/</t>
+  </si>
+  <si>
+    <t>https://unsplash.com/</t>
+  </si>
+  <si>
+    <t>https://www.stockvault.net/</t>
+  </si>
+  <si>
+    <t>https://fr.freeimages.com/</t>
+  </si>
+  <si>
+    <t>https://stocksnap.io/</t>
+  </si>
+  <si>
+    <t>https://www.freepik.com/</t>
+  </si>
+  <si>
+    <t>https://www.flaticon.com/</t>
+  </si>
+  <si>
+    <t>https://icons8.com/ouch</t>
+  </si>
+  <si>
+    <t>https://undraw.co/search</t>
+  </si>
+  <si>
+    <t>https://www.foodiesfeed.com/</t>
+  </si>
+  <si>
+    <t>https://magdeleine.co/</t>
+  </si>
+  <si>
+    <t>https://en.freejpg.com.ar/</t>
+  </si>
+  <si>
+    <t>https://thestocks.im/</t>
+  </si>
+  <si>
+    <t>https://gratisography.com/</t>
+  </si>
+  <si>
+    <t>https://picography.co/</t>
+  </si>
+  <si>
+    <t>https://startupstockphotos.com/</t>
+  </si>
+  <si>
+    <t>https://negativespace.co/</t>
+  </si>
+  <si>
+    <t>https://www.splitshire.com/</t>
+  </si>
+  <si>
+    <t>https://stokpic.com/</t>
+  </si>
+  <si>
+    <t>https://picjumbo.com/</t>
+  </si>
+  <si>
+    <t>https://isorepublic.com/</t>
+  </si>
+  <si>
+    <t>https://kaboompics.com/</t>
+  </si>
+  <si>
+    <t>https://www.istockphoto.com/fr</t>
+  </si>
+  <si>
+    <t>BlueWillow (midjourney like)</t>
+  </si>
+  <si>
+    <t>https://discord.com/invite/aEYshQE4b3</t>
+  </si>
+  <si>
+    <t>https://github.com/willwulfken/MidJourney-Styles-and-Keywords-Reference/blob/main/README.md</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1MsX0NYYqhv4ZhZ7-50cXH1gvYE2FKLixLBvAkI40ha0/htmlview</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/u/1/d/1h6H2CqjLdZMbLjlz6EHwemfO4fkIzAfWtjRAMSa2KHE/htmlview</t>
+  </si>
+  <si>
+    <t>prompts</t>
+  </si>
+  <si>
+    <t>https://lexica.art/</t>
+  </si>
+  <si>
+    <t>styles v4</t>
+  </si>
+  <si>
+    <t>styles</t>
+  </si>
+  <si>
+    <t>prompts tuto</t>
+  </si>
+  <si>
+    <t>https://prompthero.com/</t>
+  </si>
+  <si>
+    <t>rutkowski</t>
+  </si>
+  <si>
+    <t>Yoji Shinkawa</t>
+  </si>
+  <si>
+    <t>Anna Dittmann</t>
+  </si>
+  <si>
+    <t>Carne Griffiths</t>
+  </si>
+  <si>
+    <t>LoL</t>
+  </si>
+  <si>
+    <t>WoW</t>
+  </si>
+  <si>
+    <t>Veiel</t>
+  </si>
+  <si>
+    <t>deviantart</t>
+  </si>
+  <si>
+    <t>luminescent eyes</t>
+  </si>
+  <si>
+    <t>mysterious</t>
+  </si>
+  <si>
+    <t>obscure</t>
+  </si>
+  <si>
+    <t>kawaii</t>
+  </si>
+  <si>
+    <t>uwu</t>
+  </si>
+  <si>
+    <t>waifu</t>
+  </si>
+  <si>
+    <t>murloc</t>
+  </si>
+  <si>
+    <t>catwoman</t>
+  </si>
+  <si>
+    <t>anthorpomorphic head</t>
+  </si>
+  <si>
+    <t>venom</t>
+  </si>
+  <si>
+    <t>hotline miami</t>
+  </si>
+  <si>
+    <t>rollerblades</t>
+  </si>
+  <si>
+    <t>parkour (lazy vault / thief vault)</t>
+  </si>
+  <si>
+    <t>shadowrun</t>
+  </si>
+  <si>
+    <t>discord-compatible-mail</t>
+  </si>
+  <si>
+    <t>moonlight</t>
+  </si>
+  <si>
+    <t>fog</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>pirate</t>
+  </si>
+  <si>
+    <t>gangplank</t>
+  </si>
+  <si>
+    <t>jack sparrow</t>
+  </si>
+  <si>
+    <t>Veigar</t>
+  </si>
+  <si>
+    <t>Amumu</t>
+  </si>
+  <si>
+    <t>Blitzcrank</t>
+  </si>
+  <si>
+    <t>Brand (~Ignus)</t>
+  </si>
+  <si>
+    <t>Cho'Gath</t>
+  </si>
+  <si>
+    <t>Ezreal</t>
+  </si>
+  <si>
+    <t>Ekko</t>
+  </si>
+  <si>
+    <t>Fiddlesticks</t>
+  </si>
+  <si>
+    <t>Fizz</t>
+  </si>
+  <si>
+    <t>Gnar</t>
+  </si>
+  <si>
+    <t>Malzahar</t>
+  </si>
+  <si>
+    <t>Nasus</t>
+  </si>
+  <si>
+    <t>Nocturne</t>
+  </si>
+  <si>
+    <t>Orianna</t>
+  </si>
+  <si>
+    <t>Shaco</t>
+  </si>
+  <si>
+    <t>Sylas</t>
+  </si>
+  <si>
+    <t>Ahri</t>
+  </si>
+  <si>
+    <t>Ashe</t>
+  </si>
+  <si>
+    <t>Caitlyn</t>
+  </si>
+  <si>
+    <t>Evelynn</t>
+  </si>
+  <si>
+    <t>Fiora</t>
+  </si>
+  <si>
+    <t>Irelia</t>
+  </si>
+  <si>
+    <t>Janna</t>
+  </si>
+  <si>
+    <t>Kai'Sa</t>
+  </si>
+  <si>
+    <t>Karma</t>
+  </si>
+  <si>
+    <t>Katarina</t>
+  </si>
+  <si>
+    <t>Kayle</t>
+  </si>
+  <si>
+    <t>Leblanc</t>
+  </si>
+  <si>
+    <t>Lux</t>
+  </si>
+  <si>
+    <t>Miss Fortune</t>
+  </si>
+  <si>
+    <t>Morgana</t>
+  </si>
+  <si>
+    <t>Riven</t>
+  </si>
+  <si>
+    <t>Samira</t>
+  </si>
+  <si>
+    <t>Seraphine</t>
+  </si>
+  <si>
+    <t>Senna</t>
+  </si>
+  <si>
+    <t>Sona</t>
+  </si>
+  <si>
+    <t>Syndra</t>
+  </si>
+  <si>
+    <t>Xayah</t>
+  </si>
+  <si>
+    <t>Zeri</t>
+  </si>
+  <si>
+    <t>Zyra</t>
+  </si>
+  <si>
+    <t>totoro</t>
+  </si>
+  <si>
+    <t>16-bit pixel art</t>
+  </si>
+  <si>
+    <t>studio ghibli</t>
+  </si>
+  <si>
+    <t>drawing watercolor</t>
+  </si>
+  <si>
+    <t>pixar character</t>
+  </si>
+  <si>
+    <t>sketch</t>
+  </si>
+  <si>
+    <t>digital painting, digital illustration, extreme detail, digital art, 4k, ultra hd, hyperrealism</t>
+  </si>
+  <si>
+    <t>photorealistic, cryengine</t>
+  </si>
+  <si>
+    <t>anime</t>
+  </si>
+  <si>
+    <t>manga</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --v 4 --seed 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --niji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anime vampire girl with black long hair and two ponytails, a choker around her neck, wearing a low-cut tank top </t>
+  </si>
+  <si>
+    <t xml:space="preserve">make an nft baby kaiman , cartoon, simple, cute, pixel art. with cool background, 600x600 pixel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">make an nft baby kaiman , cartoon, detail, cute, pixel art, unique and gangster. with cool background, 600x600 pixel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stormfly from Dragons as an cute plushy animal on Pandora in Avatar with fire, ultra realistic ultra resolution </t>
+  </si>
+  <si>
+    <t>Female model with angel wings, High-Resolution forest photoshoot of a stunning model showcasing the futuristic green armor, The model should be depicted in a dynamic pose, emphasizing the grace and beauty of the wings, while showcasing the fit physique of the model, High-Key lighting setup to allow the focus to be on the model and the wings --q 5 --ar 3:2 --uplight</t>
+  </si>
+  <si>
+    <t>Blonde female model with angel wings, High-Resolution beach photoshoot of a stunning model showcasing the pink crystal-clear armor, The model should be depicted in a dynamic pose, emphasizing the grace and beauty of the wings, while showcasing the fit physique of the model, High-Key lighting setup to allow the focus to be on the model and the wings --q 5 --ar 3:2 --uplight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the forest nymph girl --ar 3:2 </t>
+  </si>
+  <si>
+    <t>Raven-hair blue-eyed female model with cat-ears headband and stunning smile, High-Resolution cosy room photoshoot of a stunning model showcasing a crop-top , The model should be depicted in a dynamic pose, emphasizing the grace and beauty of her eyes and smile, while showcasing the fit physique of the model, High-Key lighting setup to allow the focus to be on the model --q 5 --ar 3:2 --uplight</t>
+  </si>
+  <si>
+    <t>black-hair blue-eyed female model with cat-ears headband and stunning smile, High-Resolution cosy room photoshoot of a stunning model showcasing a crop-top , The model should be depicted in a dynamic pose, emphasizing the grace and beauty of her eyes and smile, while showcasing the fit physique of the model, High-Key lighting setup to allow the focus to be on the model --q 5 --ar 3:2 --uplight</t>
+  </si>
+  <si>
+    <t>Blue-eyed black-haired gorgeous female model with angel wings, High-Resolution forest photoshoot of a stunning model showcasing the futuristic green armor, The model should be depicted in a dynamic pose, emphasizing the grace and beauty of the wings, while showcasing the fit physique of the model, High-Key lighting setup to allow the focus to be on the model and the wings --q 5 --ar 3:2 --uplight - @osef1234 (fast)</t>
+  </si>
+  <si>
+    <t>Blue-eyed black-haired gorgeous female model with stunning smile, High-Resolution full-length beach photoshoot of a stunning model showcasing a black cat-ears headband and stunning smile, The model should be depicted in a dynamic pose, emphasizing the grace and beauty of the wings, while showcasing the fit physique of the model, High-Key lighting setup to allow the focus to be on the model and the cat-ears headband --q 5 --ar 3:2 --uplight</t>
+  </si>
+  <si>
+    <t>Full body photoshoot of a blue-eyed gorgeous female model with stunning smile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full body gorgeous black-hair blue-eyed girl wearing cat-ears headband and nylon stockings </t>
+  </si>
+  <si>
+    <t>punk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full body </t>
+  </si>
+  <si>
+    <t>&gt;&gt; try "standing"</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; This works… but to make it work better, add a location. Like, “standing on a platform”</t>
+  </si>
+  <si>
+    <t>&gt;&gt; Use descriptors that involve the limbs themselves or motion. I.e. figure a is "walking" through the woods etc. Figure b has "skinny arms and legs"</t>
+  </si>
+  <si>
+    <t>&gt;&gt; Using this vid: https://www.youtube.com/watch?v=CBJFvrTAYi4&amp;t=495 and using his linked "Prefer" prompts in description, i create the below:</t>
+  </si>
+  <si>
+    <t>[YOUR SUBJECT MATTER HERE]::5 full shot, full-length portrait, wide field of view, centered, showing entire body, award-winning cinematography, award-winning photography, Canon EOS 5D Mark IV DSLR, f/8, ISO 100, 1/250 second, 18mm lens::3 blurry, dim, close-up, uninspired::-2</t>
+  </si>
+  <si>
+    <t>type your subject matter before the ::5 weighting. Notice the phrase "close-up" has negative weighting.</t>
+  </si>
+  <si>
+    <t>I've now saved this as "fullbody" in my prefered list so i dont have to keep typing it :D</t>
+  </si>
+  <si>
+    <t>&gt;&gt; Wide field of view</t>
+  </si>
+  <si>
+    <t>&gt;&gt; character creation</t>
+  </si>
+  <si>
+    <t>&gt;&gt; “standing on a white rug” helps bring in some perspective and dimension</t>
+  </si>
+  <si>
+    <t>!!&gt; /!\  “Gorgeous” and “highly detailed” are terms that are more associated with close-ups and selfies than with full-body portraits.</t>
+  </si>
+  <si>
+    <t>blank background</t>
+  </si>
+  <si>
+    <t>plain backdrop</t>
+  </si>
+  <si>
+    <t>Calvin&amp;Hobbes</t>
+  </si>
+  <si>
+    <t>satyr</t>
+  </si>
+  <si>
+    <t>the crow eric draven</t>
+  </si>
+  <si>
+    <t>gorjuss santoro</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>apprehensive</t>
+  </si>
+  <si>
+    <t>surfing</t>
+  </si>
+  <si>
+    <t>on a bench</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1xkPPu_dD2O2gkZgV71Omr73gduCo1lDVakoN5cDRAWU/edit</t>
+  </si>
+  <si>
+    <t>the movie machine</t>
+  </si>
+  <si>
+    <t>--q 5</t>
+  </si>
+  <si>
+    <t>ballerina with diamond necklace::1 gloss floss wattercolor style, shy embarresing, smooth skin, looking at viewer, modern anime, highly detailed, super high quality, key visual of anime, pixiv masterpiece, professional color grading, portrait, 8k, close up face, deph of field, full body --ar 2:3</t>
+  </si>
+  <si>
+    <t>https://s.mj.run/N5_MBzkgrAM waifu, looking at the camera, rainbow hair, dark eyes with golden iris, gazing, beautiful symmetrical face --q 2 --ar 3:2 --niji  everything is on my profile if you need more prompts</t>
+  </si>
+  <si>
+    <t>The trick is to make a first prompt, usually that's beautiful with small mistakes, you'd remix or ask a variation, see horrible results, and just react with ✉️ on the first prompt, copy the url and paste it on the remix variation for the next prompts (and discard the horrible results of course)</t>
+  </si>
+  <si>
+    <t>Niji upscaler is more coherent and might tweak a bit, beta upscaler is more respectful of the original image and won't change much You can also ask for the upscaler in the grids too, and then upscale the upscaled proposition, however that might not make sense 😂</t>
+  </si>
+  <si>
+    <t>if you realy want a advice that helps, try to clean up your prompting, and make one after another and not all at once. it's to easy to get lost in all the prompting 🙂</t>
+  </si>
+  <si>
+    <t>In the land of fire and ash, there roams a mage with a heart of flame. Her eyes gleam like embers, and her hair dances like tongues of fire. She commands the elements with a flick of her wrist, and her laughter rings like the roar of a blazing inferno. She is the Pyromancer Mage, a sorceress of scorching power and insatiable thirst for adventure. Her magic is as beautiful as it is deadly, and she is feared and revered by all who know her name.</t>
+  </si>
+  <si>
+    <t>shadowrun tribal shaman casting a spell, glowing hands, fedora hat, trenchcoat, leather boots</t>
+  </si>
+  <si>
+    <t>concept art, shadowrun tribal shaman casting a spell, glowing eyes, glowing hands, fedora hat, trenchcoat, leather boots, watercolor painting</t>
+  </si>
+  <si>
+    <t>concept art, shadowrun tribal shaman casting a spell, glowing eyes, fedora hat, trenchcoat, watercolor drawing, --niji --seed 1</t>
+  </si>
+  <si>
+    <t>dripping paint watercolor</t>
+  </si>
+  <si>
+    <t>Carne Griffiths ++++</t>
+  </si>
+  <si>
+    <t>Russ Mills ++</t>
+  </si>
+  <si>
+    <t>Conrad Roset</t>
+  </si>
+  <si>
+    <t>Boris Vallejo</t>
+  </si>
+  <si>
+    <t>Tony DiTerlizzi</t>
+  </si>
+  <si>
+    <t>Bryan Konietzko</t>
+  </si>
+  <si>
+    <t>Abigail Larson</t>
+  </si>
+  <si>
+    <t>Cory Loftis</t>
+  </si>
+  <si>
+    <t>Beatrix Potter</t>
+  </si>
+  <si>
+    <t>Sergio Toppi</t>
+  </si>
+  <si>
+    <t>Ashley Wood +++++</t>
+  </si>
+  <si>
+    <t>Yoshitaka Amano +++</t>
+  </si>
+  <si>
+    <t>Tomer Hanuka +</t>
+  </si>
+  <si>
+    <t>Yoji Shinkawa +++</t>
+  </si>
+  <si>
+    <t>Ross Tran +++</t>
+  </si>
+  <si>
+    <t>Akihiko Yoshida ++++</t>
+  </si>
+  <si>
+    <t>Fenghua Zhong ++</t>
+  </si>
+  <si>
+    <t>Lois van Baarle +++</t>
+  </si>
+  <si>
+    <t>Karol Bak +++</t>
+  </si>
+  <si>
+    <t>Jeffrey Catherine Jones +++++</t>
+  </si>
+  <si>
+    <t>Guy Denning</t>
+  </si>
+  <si>
+    <t>Guido Crepax</t>
+  </si>
+  <si>
+    <t>Sandra Chevrier</t>
+  </si>
+  <si>
+    <t>Frank Frazetta</t>
+  </si>
+  <si>
+    <t>Jon Foster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --upbeta --s 250</t>
+  </si>
+  <si>
+    <t>pencil character sketch by Lois van Baarle</t>
+  </si>
+  <si>
+    <t>pyromancer burning eyes jrpg character concept art watercolor painted in the style of Carne Griffiths --seed 42 --niji</t>
+  </si>
+  <si>
+    <t>watercolor painting of a jrpg fire elementalist in the style of Carne Griffiths --seed 42</t>
+  </si>
+  <si>
+    <t>rappelling</t>
+  </si>
+  <si>
+    <t>rappel down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rollerblader </t>
+  </si>
+  <si>
+    <t>skater</t>
+  </si>
+  <si>
+    <t>roller-skater</t>
+  </si>
+  <si>
+    <t>Blader</t>
+  </si>
+  <si>
+    <t>wizlock: "JRPG action pose druid geomancer ww2 soldier dieselpunk armed camouflage antlers shaman lifeforce rainforest green watercolor in the style of final fantasy, and granblue fantasy" if it doesn't spit out something that looks magical enough I push terms like ghost, kami, spirit, ect into the prompt</t>
+  </si>
+  <si>
+    <t>The AI also clearly learns what you want after you go through several iterations of re-rolling, generating variations, upscale, and  rating for a given prompt. Initially I won't be getting what I hoped for and have to fish for a bit until I see a neat general idea and then drill in on that idea. Also, kinda like managing  human, I get better results not trying to micro-manage it but just wait till it dies something neat and reward that and be flexible in what I want.</t>
+  </si>
+  <si>
+    <t>To get full body shots I think you usually need to give a scene with actions like walking, standing, running. Or mention something like wearing shoes that forces it to zoom out to comply.</t>
+  </si>
+  <si>
+    <t>I ask it for an action pose, then describe the vehicle, then describe the character vaguely, then follow up with a free association of themes that I think would vibe</t>
+  </si>
+  <si>
+    <t>It depends. I mix it up based on the vibe it is outputting and how well it is responding to feedback. Its kinda like cooking, you adjust the seasoning until it tastes right not what the recipe says. I went and copied one on the prompts I had from the storm stuff, and obviously it didn't literally do what it was asked: JRPG action pose squadron of armored WW2 dieselpunk hovercraft armed with tesla coils and rockets arcing electricity and static ridden by soldiers and mages as they ride through howling winds over a plain of gold grass under a storm filled sky wings beak talons blue khaki dramatic watercolor in the style of final fantasy, and granblue fantasy --ar 2:1</t>
+  </si>
+  <si>
+    <t>Greek Athena in style of yoshitaka amano watercolor painting --v 4 --seed 4</t>
+  </si>
+  <si>
+    <t>elementalist pyromancer jrpg character concept in style of yoshitaka amano watercolor painting --v 4 --seed 4</t>
+  </si>
+  <si>
+    <t>jrpg character concept in style of yoshitaka amano watercolor painting --v 4 --seed 4</t>
+  </si>
+  <si>
+    <t>jrpg watercolor painting in the style of Carne Griffiths --seed 4</t>
+  </si>
+  <si>
+    <t>druid casting a spell in the middle of a purple forest, sf, intricate artwork masterpiece, ominous, matte painting movie poster, golden ratio, trending on cgsociety, intricate, epic, trending on artstation, by artgerm, h. r. giger and beksinski, highly detailed, vibrant, production cinematic character render, ultra high quality model</t>
+  </si>
+  <si>
+    <t>yoshitaka amano</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +1008,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -351,17 +1048,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -639,35 +1339,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="117.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="117.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -675,7 +1375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -683,7 +1383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -691,7 +1391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -699,7 +1399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -714,279 +1414,933 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" t="s">
+        <v>243</v>
+      </c>
+      <c r="N6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" t="s">
+        <v>290</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>241</v>
+      </c>
+      <c r="F27" t="s">
+        <v>169</v>
+      </c>
+      <c r="H27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F44" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F46" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="F48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F50" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F51" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F52" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F56" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F57" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F58" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFEEDC4-20C7-4388-8E4B-94E9E1102C41}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{815D2E78-E9FD-4300-BAC2-54512B4E0CAF}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{1B27D342-ADF2-41B5-825F-8C544B170B0C}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{9F080E1D-4544-4FBF-AD93-190D0025D7AE}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{3784DA73-31BE-437F-B6FF-18D193B4D12B}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{B7F1CCFD-76E7-47DB-A27C-4876C4EBC238}"/>
+    <hyperlink ref="B1" r:id="rId6" xr:uid="{8B9DE8E4-E4E5-4404-A741-33449C4EE00E}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{8466E530-E930-42A7-B451-1CEE57AE9DB1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E24" t="s">
-        <v>53</v>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -995,83 +2349,487 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0DC09F-1A4E-4B9F-9F38-36B211783335}">
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>94</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D31BF2-591C-4714-9196-A72BB7924160}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3844CAC-4689-49AD-92C7-3ADC1F2F4FA5}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{FDCBD96A-48D5-4CD3-869C-D8F2D54278B2}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{C83AA3A7-0991-4EF0-AF08-880FCEAD592F}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{A96B32AE-0D53-4035-8F98-7B621510BF45}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{C4F8C117-2B7F-4F9D-910D-227C3231611A}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{32A4CB37-09EC-4DD1-A2A1-E6ED7580B7BF}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{1BEBC3C4-ABE1-4A1B-9299-10708D2E2BD5}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{43074A93-A3E9-4447-B303-31C30DD40A83}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{FE8CFFB1-8572-4046-8D58-EBE27085B90C}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{02F9866F-EB8B-423A-B9F0-6CA6C597C6F4}"/>
+    <hyperlink ref="A10" r:id="rId10" xr:uid="{7082FB27-A6EF-4E05-B97A-AD0BF44E9544}"/>
+    <hyperlink ref="A11" r:id="rId11" xr:uid="{9BDEDF87-43BD-4CE6-8FBA-DAA3D0316485}"/>
+    <hyperlink ref="A12" r:id="rId12" xr:uid="{1676F923-CF43-4134-8098-22617A2EADC1}"/>
+    <hyperlink ref="A13" r:id="rId13" xr:uid="{20B2C005-643D-4E1C-9F9D-561C62E980FD}"/>
+    <hyperlink ref="A14" r:id="rId14" xr:uid="{126673A1-694C-482A-A1C8-6B7621B9DABB}"/>
+    <hyperlink ref="A15" r:id="rId15" xr:uid="{EFD9B3E1-550A-4A89-91D8-A7D9A3E32C93}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{7968BCCD-7E81-4C88-A5C1-82DAFD74CD70}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{E4D3F82B-368E-414E-B2AA-FA3C80675EA8}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{9A24289B-88FD-4DB3-8FAA-0DC6A1AFC98E}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{EC0DF9F3-3B25-4AFA-98A0-8B5159BB0DD7}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{69978C01-8E39-46CC-8BD3-94432EF0BA0D}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{D7A172A6-C0D7-4393-9FEE-D991AD205601}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{F9B4FCA5-F305-4433-86BA-2CD382168682}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{636653F6-2A5D-4FD0-A0B8-0B148374E629}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{9B5D7F62-AAD0-49E1-B4C5-008329C58C03}"/>
+    <hyperlink ref="A16" r:id="rId25" xr:uid="{7829D6F0-DC19-4EA5-A44B-DCE3F57787CC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED790497-E151-410F-940C-9A10FE5F9D21}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ia.prompts.xlsx
+++ b/ia.prompts.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B902EC-38D6-445D-B969-F42AD73D3937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E458638-0BBD-4ABA-8AD1-24A52CACF07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22296" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chatGPT" sheetId="1" r:id="rId1"/>
@@ -329,9 +329,6 @@
     <t>black&amp;white coloring for children, cute smiling anthropomorphic plane, white background, --seed 4 --v 4</t>
   </si>
   <si>
-    <t>https://temp-mail.org</t>
-  </si>
-  <si>
     <t>model sheet with front, back and profile views, arcane child with long pointed hat, blue T-shirt, and brown pants, with overcoat, short hair, blue eyes, Chibi art, 4k, anime</t>
   </si>
   <si>
@@ -987,6 +984,9 @@
   </si>
   <si>
     <t>yoshitaka amano</t>
+  </si>
+  <si>
+    <t>https://temp-mailbox.com/en</t>
   </si>
 </sst>
 </file>
@@ -1417,7 +1417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1425,26 +1425,26 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" t="s">
         <v>210</v>
       </c>
-      <c r="B1" t="s">
-        <v>211</v>
-      </c>
       <c r="C1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -1461,7 +1461,7 @@
         <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G5" t="s">
         <v>76</v>
@@ -1484,22 +1484,22 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G6" t="s">
         <v>77</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J6" t="s">
         <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -1516,7 +1516,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F7" t="s">
         <v>56</v>
@@ -1531,7 +1531,7 @@
         <v>60</v>
       </c>
       <c r="N7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -1563,7 +1563,7 @@
         <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -1609,7 +1609,7 @@
         <v>57</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -1620,16 +1620,16 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -1637,19 +1637,19 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H12" t="s">
         <v>26</v>
       </c>
       <c r="L12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -1663,13 +1663,13 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H13" t="s">
         <v>27</v>
       </c>
       <c r="L13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -1680,47 +1680,47 @@
         <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H14" t="s">
         <v>28</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E15" t="s">
         <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H15" t="s">
         <v>29</v>
       </c>
       <c r="L15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E16" t="s">
         <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H16" t="s">
         <v>30</v>
       </c>
       <c r="L16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
@@ -1731,7 +1731,7 @@
         <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
@@ -1739,13 +1739,13 @@
         <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H18" t="s">
         <v>32</v>
       </c>
       <c r="L18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
@@ -1753,7 +1753,7 @@
         <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H19" t="s">
         <v>33</v>
@@ -1767,7 +1767,7 @@
         <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H20" t="s">
         <v>34</v>
@@ -1781,7 +1781,7 @@
         <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
@@ -1792,10 +1792,10 @@
         <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
@@ -1806,243 +1806,243 @@
         <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
         <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="E27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2056,71 +2056,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFEEDC4-20C7-4388-8E4B-94E9E1102C41}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>87</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2130,11 +2130,10 @@
     <hyperlink ref="B8" r:id="rId3" xr:uid="{9F080E1D-4544-4FBF-AD93-190D0025D7AE}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{3784DA73-31BE-437F-B6FF-18D193B4D12B}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{B7F1CCFD-76E7-47DB-A27C-4876C4EBC238}"/>
-    <hyperlink ref="B1" r:id="rId6" xr:uid="{8B9DE8E4-E4E5-4404-A741-33449C4EE00E}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{8466E530-E930-42A7-B451-1CEE57AE9DB1}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{8466E530-E930-42A7-B451-1CEE57AE9DB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2175,27 +2174,27 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
@@ -2205,142 +2204,142 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2361,72 +2360,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2446,42 +2445,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -2501,127 +2500,127 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2669,164 +2668,164 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
